--- a/deuChatbot/research_result/results/sem_score/sem_version_2(3500_100).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(3500_100).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,61 +6247,3567 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 주요 내용은 다음과 같습니다:
+1. **모집단위 및 종목**:
+   - **시각디자인**: 기초디자인
+   - **산업디자인**: 사고의 전환
+   - **공예디자인**: 구체적인 실기종목 정보가 제공되지 않았습니다.
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+3. **실기주제 및 화지크기**:
+   - **시각디자인**: 
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+     - 화지크기: 켄트지3절
+   - **산업디자인**: 
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+     - 화지크기: 켄트지2절
+4. **시험 시간**:
+   - 5시간
+5. **배점 및 비율**:
+   - **시각디자인**: 기초디자인 (700점 중 70%)
+   - **산업디자인**: 사고의 전환 (240점 중 24%)
+이러한 실기시험은 학생들의 창의성, 표현력, 문제 해결 능력을 평가하는 데 중점을 두고 있습니다. 준비 시에는 주제와 관련된 다양한 아이디어를 발전시키며, 시간 내에 효율적으로 작업을 완료할 수 있도록 계획을 세우는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7957862380146981</v>
+        <v>0.8370910882949829</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인이 있으며, 각각 다음과 같은 세부 사항이 있습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+4. **화지크기**: 
+   - 켄트지3절
+5. **시간**:
+   - 5시간
+이 정보를 참고하여 준비하시면 좋을 것 같습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7622836640477181</v>
+        <v>0.931580126285553</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+배드민턴(남) 종목의 인정대회:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회(주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남) 종목의 인정대회:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회들 중에서 경기출전 70% 이상의 선수들이 모집종목별 인정대회에 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9571602344512939</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024년도 디자인조형학과의 기초디자인 실기시험에 대한 공식적인 주제나 내용은 제공되지 않았습니다. 하지만, 일반적으로 디자인조형학과의 기초디자인 실기 시험에서는 다양한 주제가 출제될 수 있습니다. 예를 들어:
+1. 환경설계
+2. 제품디자인
+3. 그래픽디자인
+4. 패션디자인
+5. 조각
+6. 그림(화가, 캔버스)
+7. 디지털디자인
+이러한 주제들은 학과의 특성에 따라 다르게 출제될 수 있으며, 실제 시험에서는 특정 주제나 작업을 수행하도록 요구될 것입니다. 예를 들어:
+- 환경설계: 주어진 공간을 설계하고 그림으로 표현
+- 제품디자인: 일상품을 디자인하고 3D 모델링 또는 스케치로 표현
+- 그래픽디자인: 포스터나 브랜드 이미지를 디자인
+정확한 주제와 요구사항은 해당 대학의 입시 안내를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.6442201137542725</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 
+상세 내용은 다음과 같습니다:
+- 나군 학생부교과(농어촌학생전형)의 경우, 전형요소 반영비율에서 출결 항목이 없습니다.
+- 나군 학생부교과(평생학습자전형), (성인학습자(정원내/외)전형) 등의 경우에도 출결은 반영되지 않습니다.
+따라서, 모든 나군 학생부교과 전형에서 출결 점수는 반영되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.787152111530304</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>45명을 모집합니다. 
+인문사회과학대학의 국어국문학과 - 교직은 다음과 같이 정원 내 모집 인원이 주어져 있습니다:
+전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45입니다.
+또한 가군의 일반 학생 모집인원도 17명으로 제시되어 있습니다만, 이는 전체 모집 인원 중 일부일 뿐 정원 내 모집 인원보다 적습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8382740020751953</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직입니다. 해당 정보에서 모집인원은 28이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7360451221466064</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.9644466638565063</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8472718000411987</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)에서는 지원이 불가능합니다.
+관련 내용을 보면, 나군 학생부교과(농어촌학생전형)의 고교유형별 지원자격에서 예술고는 지원 불가능한 대상으로 분류되어 있습니다.
+따라서 예술고 학생은 다른 전형이나 다른 유형의 농어촌학생전형을 통해만 지원이 가능할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9175451993942261</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기 기록은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8508641719818115</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 나군 실기/실적(경기실적우수자전형) 전형에 대한 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5703065395355225</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2명을 모집합니다.
+2024학년도 동의대학교 가군 수능(일반학생전형)에서 물리치료학과는 2명을 모집한다고 알려져 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9446809887886047</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.8221466541290283</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学2024学年应用化学专业的具体最低录取标准（수능 최저기준）。根据给出的信息，有关东义大学的招生政策和数据主要集中在以下几个方面：
+1. 各专业在不同入学考试类型下的初步合格者和最终注册者的统计数据。
+2. 不同学院和专业的详细信息，包括招生人数、申请人数、竞争比例等。
+3. 考试科目及其权重分配情况。
+4. 一些关于录取分数的统计指标（如平均分、标准差）。
+为了找到应用化学专业的确切最低录取标准，您可能需要直接查看东义大学2024学年的招生简章或联系学校的招生办公室获取最准确的信息。通常这些信息会在学校官方网站上的招生页面中公布。如果您能提供更多的上下文或者具体的数据来源，我或许能够帮助您进一步查找相关信息。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.2616763710975647</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 정보는 제공된 자료에서는 확인할 수 없습니다. 하지만, 제공된 정보 중에서 새로운 모집단위로 추가된 학과들을 살펴보면:
+1. 스마트호스피탈리티학과 (나군 조기취업형 계약학과전형 - 정원외)
+2. 미래형자동차학과 (나군 조기취업형 계약학과전형 - 정원외)
+3. 소프트웨어융합학과 (나군 조기취업형 계약학과전형 - 정원외)
+이러한 학과들은 2024학년도에 신설되었거나 추가로 모집을 시작한 것으로 보입니다. 하지만, 이 정보는 제공된 자료에서 직접적으로 확인할 수 있는 내용이며, 최신 공식 입학 안내서나 대학교 웹사이트를 참조하는 것이 가장 정확한 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.941156804561615</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 70%
+- 면접: 30%
+- 실기: 0%
+- 수능: 0%
+이전형에서는 서류 비중이 높게 설정되어 있으며, 면접 비중도 상대적으로 높은 편입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9353572130203247</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>东义大学在以下学部中应用了수능(普通学生类型)加分：
+1. 医疗·保健·生活学部 (Medical &amp; Health &amp; Life Department)
+2. 工学部 (Engineering Department)
+3. ICT融合工学部 (ICT Integrated Engineering Department)
+具体来说，在这些学部中的科目加分为：
+- 数学（微积分或几何）应试者：数学标准分数的10%加分。
+对于其他学部，如人文社会科学学部、经济管理学部等，则不适用加分政策。</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5941318869590759</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 or 언어와매체): 25%
+- 수학(확률과통계 or 미적분 or 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 - 2개 과목 합): 25%
+이렇게 각 영역별로 25%씩 반영되며, 총점은 이 네 가지 영역의 표준 점수를 각각 25%씩 가중 평균한 값으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8700962662696838</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 열립니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9920048713684082</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 실기/실적 전형으로 모집되므로 일반학생전형에서 제외됩니다.
+즉, 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9775660634040833</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 내용은 주로 특정 단과대학 및 학과별 모집단위, 지원 인원, 경쟁률 등에 관한 통계적인 자료이며, 수능 최저기준 관련 정보는 포함되어 있지 않습니다.
+수능 최저기준이 적용되는지 확인하려면 동의대학교 입학처 웹사이트나 공식 안내서를 참조하거나, 직접 입학처와 연락하여 확인하는 것이 가장 정확할 것입니다. 또한, 대입 전형 및 수능 최저기준은 매년 변경될 수 있으므로, 최신 정보를 얻기 위해서는 올해의 최신 자료를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8893343210220337</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 경제금융보험학과가 분리되어 금융경영학과로 변경되었습니다.
+또한 다른 몇몇 학과들도 분리되거나 변경되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+3. 부동산금융·자산경영학과 -&gt; 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+4. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+5. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+6. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+7. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+8. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+9. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+따라서 경제금융보험학과가 금융경영학과로 분리된 것이 2024학년도 동의대학교에서 학부에서 학과로 분리된 유일한 사례입니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9538506865501404</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.8923923373222351</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 120점, 2등급 111점 등
+     - 학업역량: 1등급 240점, 2등급 222점 등
+     - 전공적합성: 1등급 240점, 2등급 222점 등
+2. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점, 2등급 129.5점 등
+     - 학업역량: 1등급 280점, 2등급 259점 등
+     - 전공적합성: 1등급 280점, 2등급 259점 등
+3. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력에 대한 평가
+     - 전공적합성: 진로정보 탐색능력에 대한 평가
+4. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력에 대한 평가
+     - 전공적합성: 진로정보 탐색능력에 대한 평가
+5. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 방법이 블라인드 면접으로 변경되었습니다.
+6. **다군 수능(일반학생전형)**:
+   - 전형요소 반영비율이 변경되었습니다.
+     - 수능: 100%
+7. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력에 대한 평가
+     - 전공적합성: 진로정보 탐색능력에 대한 평가
+8. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 방법이 블라인드 면접으로 변경되었습니다.
+이러한 변화들은 각 전형의 평가 기준과 절차를 더 공정하고 체계적으로 만들기 위한 조치로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.8981538414955139</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 차지하는 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과는 실기가 70%를 차지합니다.
+- 기타 모집단위는 수능이 100%를 차지하며, 실기는 반영되지 않습니다.
+따라서, 일반적으로 가군 실기/실적 전형에서는 실기가 70%의 비중을 가지는 경우가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9396262168884277</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부에 대한 정보는 제공된 데이터에서 명확히 확인할 수 없습니다. 그러나 일반적으로 라이프융합학부는 건강, 사회복지, 교육 등 다양한 분야를 종합적으로 다루며, 세부 전공은 다음과 같은 형태로 구성될 수 있습니다:
+1. 건강관리전공
+2. 사회복지전공
+3. 교육상담전공
+하지만 이 정보는 동의대학교의 공식 입학 안내나 홈페이지 등을 통해 확인해야 정확한 내용을 파악할 수 있습니다. 제공된 데이터에서는 라이프융합학부에 대한 구체적인 세부 전공 구성은 언급되어 있지 않습니다. 따라서 최신 정보를 얻기 위해서는 동의대학교의 공식 입학 안내서나 홈페이지를 참조하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9335894584655762</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 실기고사를 실시하는 학과는 다음과 같습니다:
+1. 디자인조형학과
+2. 체육학과 
+3. 레저스포츠학과
+4. 태권도학과
+이러한 학과들은 실기고사에 참여해야 합니다. 기타 일반학생전형 학과는 수능 및 서류평가만으로 입시를 진행합니다.
+추가적으로, 가군은 주로 수능 성적과 학생부 교과성적을 기반으로 하는 전형입니다. 하지만 위에서 언급한 4개의 학과는 실기고사 결과도 함께 고려됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9305609464645386</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형으로 모집하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 "가군 실기/실적(일반학생전형)"으로 모집하며, 각각의 모집 인원은 11명입니다.
+참고로, 다른 전형 유형에서는 실기/실적 위주로 모집하는 학과는 없습니다. 따라서 실기/실적 위주 전형을 지원하려면 레저스포츠학과 또는 태권도학과 중 하나를 선택해야 합니다.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9344944953918457</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이는 2024학년도 주요 변경사항에서 언급된 내용에 따릅니다. 이 학부는 신설되었으며, 이 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5894107222557068</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특히 주요 내용을 요약하면:
+- 모집군 가군, 나군, 다군 모두 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 등 다양한 고등학교 유형에서 지원 가능합니다.
+- 특수목적고등학교 중 과학고, 국제고, 외국어고는 일반적으로 지원이 가능하지만, 예술고와 체육고는 일부 모집단위에서는 제외될 수 있습니다. 
+- 정확한 지원 가능 여부는 해당 학교의 모집요강을 확인하는 것이 가장 확실합니다.
+따라서 특수목적고등학교 학생이더라도 동의대학교 일반학생전형에 지원할 수 있으며, 특정 학교나 전공에서는 제한될 수 있으니 자세한 내용은 대학 홈페이지나 입학처와 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.5761498212814331</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학**의 여러 학과가 많은 인원을 모집하고 있습니다:
+   - 기계공학과 - 교직: 17명
+   - 로봇자동화공학과: 0명 (이 경우 정원 외)
+   - 자동차공학과: 7명
+   - 조선해양공학과: 26명
+   - 신소재공학과: 32명
+   - 고분자나노공학과: 26명
+2. **인문사회과학대학**의 학과들도 꽤 많은 인원을 모집하고 있습니다:
+   - 영어영문학과 - 교직: 28명
+3. **상경대학**에서도 몇몇 학과가 모집 인원이 많습니다:
+   - 경영정보학과: 7명
+   - e비즈니스학과: 10명
+4. **한의과대학**에서도 많은 인원을 모집하고 있습니다:
+   - 한의예과 수학(미적분/기하): 50명
+   - 한의예과 수학(확률과통계): 50명
+이 중에서 가장 많이 모집하는 학과는 **한의과대학**의 **한의예과 수학(미적분/기하)**와 **한의예과 수학(확률과통계)**으로 보입니다. 각각 50명씩 모집하고 있으며, 이는 다른 학과들보다 훨씬 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **한의예과 수학(미적분/기하)**과 **한의예과 수학(확률과통계)**으로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9145673513412476</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，根据提供的信息，你符合东义大学农林地区学生选拔条件。具体来说：
+1. **支持资格**：
+   - 特殊教育高中（科学高中、国际高中、外语高中除外）的学生可以申请。
+   - 特殊教育高中（艺术高中、体育高中除外）的学生可以申请。
+   - 特殊教育高中（技术高中）的学生可以申请。
+   - 特殊教育高中（综合课程）的学生可以申请。
+2. **申请资格**：
+   - 你必须在农林地区（乡·面）的中等和高中学校完成整个教育过程，并且你在中学和高中的学习期间，你自己及你的父母双方（如果父母一方去世或离婚，则不包括该方）都居住在农林地区。
+3. **提交文件**：
+   - 你需要提交以下文件：
+     - 1. 申请者本人的亲属关系证明书 1 份
+     - 2. 申请者本人、父、母的户籍誊本各 1 份（总计 3 份）
+     - 3. 中学学籍卡 1 份（教育机构、公共机关、自助服务机、政府24网站可获取）
+     - 4. 高中学籍卡 1 份（对于非在线提交的学生和未同意的学校，需要提供）
+因此，你作为特殊教育高中学生，并且满足在农林地区居住的要求，是可以申请东义大学农林地区学生选拔项目的。建议仔细查看具体的文件要求并准备齐全。如果有任何疑问，可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3601116836071014</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종 등록자의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+이 데이터는 다음과 같은 정보를 기반으로 합니다:
+- 단과대학: ICT융합공과대학
+- 모집단위: 소프트웨어공학부
+- 모집 인원: 30명
+- 지원 인원: 146명
+- 경쟁률: 4.87
+- 충원 합격 (후보순위): 63명
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+따라서, 2024학년도 소프트웨어공학부의 합격자들의 평균 성적은 434.70입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.824984073638916</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8415509462356567</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2023년 경북대학교의 합격자 발표 일정에 대한 명확한 정보가 제공되지 않았습니다. 일반적으로 대학별로 합격자 발표는 입시일정에 따라 이루어지며, 대부분은 정시모집의 경우 1월 중순부터 시작됩니다. 하지만 각 전형별로 다르게 진행될 수 있으므로, 경북대학교의 공식 홈페이지나 입학처 웹사이트를 통해 최신 정보를 확인하시기 바랍니다. 해당 사이트에서 가장 정확하고 최신의 합격자 발표 일정을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.7309198379516602</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有具体说明面试考试的具体日期或时间安排。为了获取准确的面试时间和地点，建议直接咨询学校招生办公室或者查看学校的官方公告和通知。通常这类信息会在报名结束后通过官网、邮件或其他联系方式告知考生。请保持关注并及时确认相关安排。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.4098121225833893</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 한의예과의 경우, 대체로 고등학교 졸업 자격이 필요하며, 일부 대학에서는 특정 과목 성적 또는 수능 점수 기준을 요구할 수 있습니다.
+하지만, 정확한 최저학력기준은 각 대학 별로 다를 수 있으므로, 해당 대학의 공식 입학요강이나 홈페이지를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5463134050369263</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 정시모집의 경우 다음과 같은 수능 최저학력 기준을 확인할 수 있습니다:
+1. 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외):
+   - 수능최저기준 없음
+2. 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외):
+   - 수능최저기준 없음
+3. 다군 수능(일반학생전형) 전 모집단위:
+   - 수능최저기준 없음
+4. 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과:
+   - 수능최저기준 없음
+5. 나군 실기/실적(일반학생전형) 디자인조형학과, 체육학과:
+   - 수능최저기준 없음
+6. 다군 실기/실적(일반학생전형) 경기지도학과:
+   - 수능최저기준 없음
+7. 나군 학생부교과(농어촌학생전형) - 정원외:
+   - 수능최저기준 없음
+8. 나군 학생부교과(평생학습자전형):
+   - 수능최저기준 없음
+9. 나군 학생부교과(성인학습자(정원내)전형):
+   - 수능최저기준 없음
+10. 나군 학생부교과(성인학습자(정원외)전형 - 정원외):
+    - 수능최저기준 없음
+11. 나군 학생부종합(재직자전형) - 정원외:
+    - 수능최저기준 없음
+12. 나군 학생부종합(조기취업형계약학과전형) - 정원외:
+    - 수능최저기준 없음
+따라서, 2024학년도 정시모집에서 대부분의 전형에서는 수능 최저학력 기준이 없습니다. 특정 학과나 전형에 따라 다르게 적용될 수 있으므로, 각 모집단위별로 공식 입학처 웹사이트를 확인하시거나, 대학 측에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6830657720565796</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도의 경우, 충원 합격자 발표 일정은 다음과 같습니다:
+- **충원 합격자 1차 발표**: 2024. 02. 14.(수) 09:00
+- **충원 합격자 1차 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **충원 합격자 2차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 2차 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **충원 합격자 3차 이후 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정들은 각각의 충원 합격자 발표와 등록 시기를 알려주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9650150537490845</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>为您提供准确答案，我需要更多具体信息，比如您指的是哪所大学或学校的哪个招生项目。不过根据一般的流程，如果是指韩国某大学的入学考试，通常情况下：
+1. 初试成绩公布时间：一般在考试后的2-4周内。
+2. 补录（추가합격자）名单公布时间：通常会在初试成绩公布后的一两周内进行补录。具体日期会由学校官方通知。
+建议您直接查看目标学校的官方网站或联系招生办公室获取最准确的信息。每个大学的具体安排可能会有所不同，因此最好以官方发布的为准。</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3837469816207886</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到是否进行额外招生（추가모집）。为了给出准确答案，需要具体查看学校的官方招生简章或相关公告。通常，学校会在正式的招生计划中说明是否有额外招生安排以及相关的详细信息。
+如果要确认是否进行额外招生，建议直接咨询学校招生办公室或访问学校官网获取最新、最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3194259703159332</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 성인 학습자를 위한 특별한 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 검정고시 출신자
+   - 외국고교 졸업(예정)자
+2. 제출 서류:
+   - 고교 졸업(예정)자는 고교 학교생활기록부 1부
+   - 검정고시 출신자는 1. 검정고시 합격증서 사본 또는 합격증명서 1부, 2. 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자는 1. 공증받은 외국고교 졸업(예정)증명서 1부, 2. 공증받은 외국고교 성적증명서 1부
+3. 평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+4. 서류평가 및 면접평가:
+   - 서류평가: 각 영역별로 평가 기준에 따라 점수를 부여합니다.
+   - 면접평가: 지원동기, 학업계획, 학업역량, 전공적합성 등을 평가합니다.
+5. 동점자 처리:
+   - 1순위: 면접고사 성적 상위자
+   - 2순위: 서류평가 공동체역량 영역 성적 상위자
+   - 3순위: 서류평가 전공적합성 영역 성적 상위자
+6. 주요 변경사항:
+   - 2024학년도에는 학생부종합 평가영역이 공동체역량, 학업역량, 전공적합성을 포함하게 되었습니다.
+   - 서류평가의 경우, 학생부 교과성적 반영방법이 변경되었습니다.
+이러한 내용을 참고하시어 필요한 서류를 준비하고 지원하시면 됩니다. 자세한 사항은 대학 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.832699179649353</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 근로기준법 제11조에 따라 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입된 사업체 (창업·자영업자 포함)
+     - 단, 4대 보험 가입 대상이 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서를 통해 인정 가능
+2. **재직 기간**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.6788343787193298</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각 모집단위에 따라 다르게 진행됩니다. 예를 들어:
+1. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**:
+   - 일정: 2024년 1월 17일 (수)
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등
+   - 실기주제: 주제A와 주제B 중 각 1개를 선택하여 연결된 주제로 당일 추첨
+   - 화지크기: 켄트지3절
+   - 시간: 5시간
+2. **체육학과**:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%)
+   - Z-런 (230점, 23%)
+3. **레저스포츠학과**:
+   - 제자리 멀리뛰기 (350점, 35%)
+   - Z-런 (350점, 35%)
+4. **태권도학과**:
+   - 품새: 앞차기(오른발, 왼발) × 2회, 돌려차기(오른발, 왼발) × 2회, 옆차기(오른발, 왼발) × 2회
+   - 응용실기 (500점): 지정 품새 (고려)
+5. **디자인조형학과 (레저스포츠학과 제외)**:
+   - 일정: 2024년 1월 17일 (수)
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등
+   - 실기주제: 주제A와 주제B 중 각 1개를 선택하여 연결된 주제로 당일 추첨
+실기고사는 해당 모집단위의 대기실에서 진행되며, 입실 시간은 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사 장소는 각 모집단위별로 다르므로 해당 모집단위의 대기실로 가야 합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.6326937675476074</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 항목들로 구성되어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+따라서 체육학과의 학생들은 이 세 가지 실기 종목 중 하나를 선택하여 준비해야 합니다. 각 항목은 비율대로 점수가 부여되며 총점에서 차지하는 비중이 다릅니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4373581409454346</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입학사정 과정에 따르면, 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수도 있습니다. 하지만 모든 경우에 대해 전화 통보를 받는 것은 아닙니다. 대체로 다음과 같은 절차가 적용됩니다:
+1. **발표**: 2024년 2월 15일 오후 7시 이후 충원 합격자 발표.
+2. **등록**: 2024년 2월 15일부터 2월 20일까지 등록.
+충원 합격자는 2024년 2월 15일 오후 7시 이후 홈페이지에서 개별 조회가 가능하며, 고지서도 출력이 가능합니다. 이 후에는 학교 측에서 일부 합격자에게는 전화 통보를 할 수 있습니다.
+하지만 가장 확실한 방법은 합격 발표 후 입학관리팀에 연락하여 확인하는 것입니다. 직접 학교로 문의하거나, 입학사정관과 상담을 통해 최신 정보와 안내를 받으시는 것이 좋습니다.
+[입학사정관과의 연락처 및 입학관리팀 정보 확인하기](https://ipsi.deu.ac.kr/main.do)
+이러한 절차에 대해 궁금하신 점이 있으면 언제든지 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7391980886459351</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 2023학년도의 대략적인 추세를 예측할 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- 단과대학: 인문사회과학대학
+- 모집단위: 경찰행정학과
+- 모집인원: 7명
+- 지원인원: 29명
+- 경쟁률: 4.14
+- 충원 합격 (후보순위): 7명
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같을 것으로 추정할 수 있습니다:
+- 모집인원: 약 7명
+- 지원인원: 약 29명 (대략적인 비슷한 수준)
+- 경쟁률: 대략 4.14 정도
+하지만, 정확한 2023학년도의 지원자 수와 합격자 수는 제공된 데이터에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 공식 안내서를 참조하거나 직접 문의하는 것이 가장 정확합니다.
+더 궁금하신 점이 있으시다면 추가 질문 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8066115379333496</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 일부 전형에서는 수능을 응시하지 않은 경우에도 지원이 가능합니다. 특히 농어촌학생전형과 평생학습자전형 등에서 수능 응시 여부에 관계없이 지원할 수 있는 경우가 있습니다.
+예를 들어:
+- **나군 학생부교과(농어촌학생전형)**: 농어촌 지역 거주 조건만 충족하면 수능을 응시하지 않아도 지원 가능합니다.
+- **나군 학생부종합(성인학습자(정원내·외)전형)**, **나군 학생부종합(재직자전형)** 등에서도 특정 조건만 충족하면 수능 응시 여부에 관계없이 지원 가능합니다.
+하지만 대부분의 전형에서는 수능 점수를 반영하므로, 수능을 응시하는 것이 유리할 수 있습니다. 자세한 내용은 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.842837929725647</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，韩国的大学入学考试（如高考）有严格的年龄限制。对于已经高中毕业超过一定年限的学生来说，直接通过普通高考（一般指“정시”或常规录取途径）进入大学是比较困难的。
+不过，有一些特殊类型的招生计划可能适用于您：
+1. **평생학습자전형 (成人学习者类型)**：这类计划专门针对那些在高中毕业后有多年工作经验的人。您可以查看是否有适合您的专业和学校。
+2. **성인학습자 전형 (成人学习者类型)**：同样，这是为成年人设计的特殊招生方式，可能不需要参加普通高考，而是通过其他评估方式进行选拔。
+3. **재직자전형 (在职人员类型)**：这类计划面向在职员工，他们希望进一步深造或转换职业。您需要提供工作证明和相关经验材料。
+4. **조기취업형 계약학과 전형 (提前就业型合同学类招生)**：这种类型的招生计划允许学生在大学期间就开始实习并获得工作经验，适合有明确职业规划的学生。
+建议您详细查看目标学校的招生简章或直接联系学校咨询办公室，了解具体的申请条件和流程。同时，也可以考虑参加一些成人教育课程来提升自己的竞争力。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.5870814323425293</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조), 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 (2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 (2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 3차 이후 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정은 일반적으로 정시 모집의 주요 단계를 포함하며, 각 단계별로 필요한 준비와 제출 사항을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9459027647972107</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024. 02. 14.(수) 09:00
+       - 비고: 동일
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00
+       - 비고: 동일
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - 비고: 동일
+이 일정은 일반적으로 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 중요한 정보와 마감일을 명시하였습니다. 자세한 내용은 입학안내 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9559651017189026</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **다군 수능(일반학생전형)**:
+   - 이 전형은 일반적으로 수능 점수를 반영하지만, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 다양한 단과대학과 계열에서 모집됩니다.
+2. **다군 실기/실적(일반학생전형)**:
+   - 이 전형은 실기고사와 학생부 교과 성적을 반영하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 레저스포츠학과, 태권도학과 등에서 모집됩니다.
+3. **다군 실기/실적(경기실적우수자전형)**:
+   - 이 전형은 경기 실적을 반영하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+4. **나군 학생부교과(농어촌학생전형)**:
+   - 이 전형은 학생부 교과 성적을 주요 평가 기준으로 하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+5. **나군 학생부교과(평생학습자전형)**:
+   - 이 전형은 학생부 교과 성적을 주요 평가 기준으로 하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+6. **나군 학생부종합(성인학습자(정원내)전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 성인 학습자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+7. **나군 학생부종합(성인학습자(정원외)전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 성인 학습자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+8. **나군 학생부종합(재직자전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 재직자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+9. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 조기 취업자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+따라서, 수능 미응시자도 다양한 전형을 통해 동의대학교에 지원할 수 있는 기회가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.5908646583557129</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 기준으로, 전자공학과의 충원 합격자는 165명이었으며, 이는 105명의 모집인원을 초과하여 60명이 추가로 충원 합격하였습니다. 따라서 전년도(2023학년도)에 전자공학과의 충원 합격은 최소 2차까지 이루어졌습니다.
+만약 정확한 1차와 2차의 구체적인 수치가 필요하다면, 해당 정보는 제공된 데이터에서 찾을 수 없습니다. 따라서 2차 이상으로 확정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.6288497447967529</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 정확한 입학처 전화번호를 확인할 수 없습니다. 대학 홈페이지나 공식 문서를 통해 최신 연락처를 확인하시기 바랍니다. 일반적으로 대학 홈페이지의 '연락처' 또는 '입학 안내' 섹션을 찾아보시면 전화번호가 표시되어 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.521156907081604</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19시부터 20일(화) 18시까지는 3차 충원합격자에 대한 개별 전화 통보가 이루어집니다. 만약 이 기간 동안 전화 통화가 되지 않는 경우, 다음과 같은 절차를 따르게 됩니다:
+1. 홈페이지에서 개별 조회: 합격 여부 확인을 위해 입학 안내 홈페이지에서 개별적으로 조회해야 합니다.
+2. 고지서 교부: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. 등록장소: 학교 지정은행으로 등록해야 하며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+따라서 전화 통화가 되지 않더라도, 위의 절차를 통해 합격 여부와 등록 방법을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9467675089836121</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 농어촌학생전형에서 제출해야 하는 주요 서류는 다음과 같습니다:
+1. 고교 학교생활기록부 1부 
+   - 학생부 온라인 제공 동의자가 있는 경우 제출 필요 없음
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. 농어촌학생증명서 1부 
+   - 농어촌학생으로 인정받은 증명서를 제출해야 함
+3. 학생부교과성적표 1부
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. 농어촌학생전형 지원동의서 1부 
+   - 본인이 농어촌학생으로 인정받기를 원하는지 동의하는 서류
+5. 기타 추가 서류(선택적)
+   - 지역특성화 프로그램 참여 경력 증빙자료 등 (필요시 제출)
+이러한 서류들을 정확하게 준비하여 제출해야 합니다. 특히 농어촌학생증명서는 반드시 포함되어야 하며, 학교생활기록부와 교과성적표는 온라인 제공 동의가 있는 경우 제출하지 않아도 됩니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.8292322754859924</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정인 농어촌학생전형의 제출서류는 다음과 같습니다:
+- 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+- 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음
+이외 추가적인 서류는 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9418277740478516</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 해당 대학에서는 정시모집의 경우 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 이전 년도와 달리 2024학년도에는 저소득 기회균등 전형이 없어졌음을 알 수 있습니다.
+따라서, 현재 정보에 따르면 정시모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 판단됩니다. 하지만 매년 변화가 있을 수 있으므로, 최종 결정을 내리기 전에는 대학 입학처 웹사이트나 공식 안내문을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5736340880393982</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果需要计算两个科目成绩的平均值，并且结果是小数（如2.5），通常会进行四舍五入处理。具体做法可能会因学校或大学的不同而有所差异。
+但是根据您提供的信息：
+- 如果“사탐(2개 과목 평균산출)”是指将两个社会科目成绩相加后取平均值，那么2.5等会保留为2.5。
+- 但如果需要进行整数化处理（如四舍五入），则2.5会被四舍五入到3。
+建议您查看具体的招生简章或咨询学校招生办公室以确认他们的具体处理方式。通常情况下，大多数大学会采用四舍五入的方式处理小数成绩。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.6321803331375122</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 입학의 경우, 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+따라서 정시 충원 합격자는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.8987348675727844</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**：根据您提供的信息，该专业的招生人数为10人，而最终注册的申请者有36人。因此竞争非常激烈。
+2. **성적 평균 및 분산**：
+   - 国语+数学+探究（含加分）标准转换总分平均值: 286.80
+   - 国语+数学+探究（含加分）标准转换总分标准差: 15.04
+   - 英语等级平均值: 4.30
+   - 英语等级标准差: 1.14
+   - 高考四科等级平均值: 5.18
+   - 高考四科等级标准差: 0.50
+3. **你的成绩**：你提到的e비즈니스学专业的成绩为4.6。
+根据这些信息，我们可以进行以下分析：
+- 你的英语等级是4.6，在平均值之上。
+- 但是，其他科目（国语+数学+探究）的标准转换总分相对较低，低于平均值286.80。
+综合来看，虽然你的英语成绩较好，但整体成绩略低于该专业的平均水平。因此，尽管有可能通过，但竞争非常激烈，录取几率较小。
+建议：
+1. 仔细检查所有提交的材料是否完整且准确。
+2. 如果可能的话，可以尝试提高其他科目的成绩或参加其他类型的入学考试（如特长生、艺术类等）以增加录取机会。
+3. 关注学校发布的最新招生信息和补充通知。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.6959542632102966</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 최초합격자들의 성적 분석을 보면, 다음과 같은 정보가 있습니다:
+- 모집단위: e비즈니스학과
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+성적 분석:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.20
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 7.56
+정시 등급 5.3은 영어영역 등급에 해당합니다. 2024년 동의대학교 수능 등급별 점수 변환표를 보면, 등급 5.3은 약 123점으로 추정됩니다.
+이 점수는 e비즈니스학과 최초합격자들의 평균 점수(317.20)보다 상당히 낮습니다. 따라서 정시 등급 5.3을 가진 학생은 e비즈니스학과에 최초 합격하기는 어렵다고 볼 수 있습니다.
+하지만, 경쟁률이 높지 않은 경우나 일부 특별한 사정이 있는 경우에는 가능성이 있을 수 있으므로, 정확한 확률을 예측하기 위해서는 더 많은 정보가 필요합니다. 또한, 동의대학교의 최종 합격자 결정은 단순히 점수만으로 판단되는 것이 아니라 다양한 요소를 고려하므로, 개인적인 상황과 특성도 중요한 역할을 합니다.
+따라서 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 낮다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7795325517654419</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提供的信息中没有具体的成绩数据。通常，学校会根据学生的综合成绩来决定是否预录取。
+2. **竞争情况**：不同年份和专业的录取分数线可能会有所不同。你需要了解该专业在2024年的录取标准和往年的情况。
+3. **其他因素**：除了学术成绩外，一些大学还会考虑面试表现、推荐信等因素。
+假设你提供的信息是基于2024年的情况，并且你的成绩大致如下：
+- 国语 + 数学 + 探究 (含加分) 标准转换总分平均值为 308.58
+- 英语等级的平均分为 3.66
+根据你提供的数据，你的成绩在中等偏上水平。但是，是否能够预录取还需要考虑以下几个方面：
+1. **专业竞争情况**：e비즈니스학과 (电子商务学) 在2024年的报名人数为89人，最终录取了31人。这意味着竞争相对激烈。
+2. **平均分和标准差**：
+   - 国语 + 数学 + 探究 (含加分) 标准转换总分的平均值是 308.58
+   - 英语等级的平均值是 3.66
+这些数据表明你的成绩在该专业的中等偏上水平，但是否能够预录取还需要看具体的分数线。
+建议你：
+1. **查看最新的招生简章**：了解2024年的具体录取标准和流程。
+2. **参考往年数据**：如果可能的话，查阅近几年的录取分数线和平均分，以便更好地评估自己的竞争力。
+3. **准备面试**：即使成绩不错，面试的表现也很重要。确保做好充分的准备。
+综上所述，虽然你的成绩在中等偏上的水平，但是否能够预录取还需要结合具体的专业情况和其他因素来判断。建议你密切关注学校发布的最新信息，并做好全面的准备。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.5122432708740234</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 가능성이 있습니다만, 정확한 합격 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위와 모집인원**: 동의대학교 간호학과의 정원 내 모집 인원과 지원 인원을 확인해야 합니다. 예를 들어, 30명을 모집하고 65명이 지원한다면 경쟁률은 높아지겠지만, 120명을 모집하고 145명이 지원한다면 경쟁률은 낮아질 수 있습니다.
+2. **경쟁률**: 동의대학교 간호학과의 최종 등록자들의 성적 분포를 확인해야 합니다. 평균 점수가 3.44보다 높다면, 경쟁률이 높을 가능성이 있으며, 낮다면 합격 가능성은 높아집니다.
+3. **가산점**: 일부 전형에서는 가산점을 받을 수 있으므로, 이 부분도 고려해야 합니다. 예를 들어, 경기 실적 우수자나 농어촌 학생 등에 대한 특별 지원이 있다면 점수가 더 낮아질 수도 있습니다.
+4. **전형 별 모집인원**: 전형별로 모집 인원과 지원 인원이 다르므로, 해당 전형의 상세 정보를 확인해야 합니다. 예를 들어, 일반 학생이나 농어촌 학생 전형 등에 따라 경쟁률이 달라질 수 있습니다.
+5. **전형 별 평균 성적**: 동의대학교 간호학과에서 각 전형별로 지원한 학생들의 평균 성적을 확인하면, 자신의 성적이 어느 정도인지 판단할 수 있습니다.
+6. **수능 점수와 영어 등급**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급도 중요한 요인입니다. 이 부분에서 좋은 성적을 받았다면, 합격 가능성은 높아집니다.
+따라서, 정확한 합격 여부를 판단하기 위해서는 동의대학교 간호학과의 모집 인원, 지원 인원, 전형별 평균 성적 등을 종합적으로 분석해야 합니다. 또한, 대입 컨설팅 서비스나 입시 전문가와 상담하는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7008515596389771</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 동의대학교 간호학과의 경우 상당히 낮은 수준입니다. 동의대학교 간호학과의 정원 내 모집인원에 대한 지원자들의 경쟁률과 평균 합격 점수가 고려되어야 합니다.
+다음은 간호학과 관련 정보를 바탕으로 추론할 수 있는 내용들입니다:
+1. 2024학년도 동의대학교 간호학과 모집인원: 22명
+2. 지원자 수: 145명 (경쟁률 6.59)
+3. 최종 합격者的：
+Assistant: 根据您提供的信息，您的成绩为2.52，在东义大学护理学专业的情况来看，这确实是一个相对较低的分数。以下是根据相关信息进行的一些推断：
+1. **2024年东义大学护理学专业的招生人数**：22人
+2. **报名人数**：145人（竞争比为6.59）
+3. **最终录取平均分**：489.72
+从这些数据可以看出，护理学专业的竞争非常激烈。虽然您的成绩低于最终录取的平均分，但并不完全排除被录取的可能性。以下是一些建议：
+1. **了解具体要求**：仔细查看东义大学护理学专业对学生的具体分数要求和其他条件。
+2. **参考往年数据**：研究过去几年的录取情况，看看是否有例外情况或特殊情况导致某些低分学生被录取。
+3. **准备充分**：即使成绩较低，也要确保在面试和提交其他材料时表现出色。例如，在个人陈述中突出自己的优势、特长以及为什么选择护理学专业等。
+虽然您的分数相对较低，但仍然有可能通过展示自己独特的优点和其他方面的优秀表现来增加录取机会。建议您详细咨询学校招生办公室以获取更具体的信息和支持。</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.781563937664032</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 상대적으로 좋은 점수입니다. 하지만 간호학과의 경쟁률과 입학사정관 제도 등 여러 요인을 고려해야 합니다.
+1. **경쟁률**: 간호학과는 매우 높은 경쟁률을 보이는 학과 중 하나입니다. 특히 인문사회과학대학, 상경대학 등의 모집단위에서는 더욱 치열합니다.
+2. **입학사정관 제도**: 동의대학교는 입학사정관제를 통해 다양한 요소를 고려합니다. 따라서 성적이 조금 낮더라도 다른 평가 항목에서 좋은 점수를 받으면 합격 가능성은 있습니다.
+3. **학생부 및 면접 성적**:
+   - **학생부**: 70%의 비중을 차지하므로, 출결, 서류, 면접 등에서 높은 점수를 받는 것이 중요합니다.
+   - **면접**: 40%의 비중으로, 학업역량과 전공적합성 등을 평가받습니다. 준비와 자기소개 능력이 중요합니다.
+4. **추천서 및 특기사항**:
+   - 추천서나 특기사항 등에서 긍정적인 점을 강조할 수 있습니다.
+5. **동영상 제출**: 일부 전형에서는 동영상을 제출하도록 요구하기도 합니다. 이는 학생의 진실성과 열정을 보여줄 수 있는 좋은 기회입니다.
+6. **추천사 및 면접 준비**:
+   - 교사나 선배들의 추천서를 받고, 면접에서 자신감 있게 자기소개와 계획을 전달할 수 있어야 합니다.
+결론적으로 3.7이라는 성적만으로는 확실한 합격을 보장하기 어렵지만, 다른 평가 항목에서 높은 점수를 받으면 합격 가능성은 있습니다. 꼼꼼히 준비하고, 다양한 평가 항목에서 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6247856020927429</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 성적 평균은 3.17이고, 표준 편차는 0.58입니다. 이 정보만으로 볼 때, 지원하신 분의 성적이 2.58이므로 약간 낮은 수치로 보입니다.
+하지만 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. 경쟁률: 현재 경쟁률은 3.74이며, 이는 상대적으로 높습니다. 따라서 성적이 조금 낮더라도 다른 평가 항목에서 우수한 점수를 받으면 합격 가능성은 높아집니다.
+2. 서류평가: 동의대학교는 서류평가 비중이 높으므로, 지원서와 면접 등에서 좋은 평가를 받을 수 있다면 이점이 크게 작용할 수 있습니다.
+3. 면접 성적: 면접에서도 우수한 점수를 받으면 합격 가능성은 높아집니다.
+4. 전형 요소 반영 비율: 동의대학교는 서류 60%, 면접 40%로 구성되어 있으므로, 이 부분에서 좋은 평가를 받을 수 있다면 도움이 될 것입니다.
+5. 학생부 교과 성적: 현재 제공된 정보에서는 학생부 교과 성적이 반영되는지 확인되지 않았습니다. 만약 반영된다면, 지원자의 성적이 2.58이라면 약간 낮은 수치로 보입니다.
+결론적으로, 성적이 약간 낮더라도 다른 평가 항목에서 우수한 점수를 받으면 합격 가능성은 높아질 수 있습니다. 하지만 경쟁률이 높고 서류평가 비중이 높기 때문에, 지원자의 전반적인 평가 결과에 따라 결정될 것입니다.
+추천 사항:
+- 면접 준비에 만전을 기하고
+- 서류를 철저히 준비하여 최선의 결과를 얻도록 노력하세요.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7713908553123474</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学专业(游戏工学部)录取,我们需要考虑以下几个因素:
+1. 您的高考成绩和排名情况。根据提供的数据,该专业的平均分和其他相关统计数据可以帮助我们了解您的分数是否接近或超过平均水平。
+2. 竞争激烈程度。从给出的数据来看,该专业的竞争比率为5.33,属于中等偏上水平,说明录取难度较大。
+3. 您的个人情况和申请材料质量。虽然没有具体数据,但良好的个人陈述、推荐信等也可能对录取有帮助。
+4. 学校的具体录取标准可能会有所变化,建议直接咨询学校招生办公室获取最新信息。
+根据现有信息,您的预估分数(7号)处于中等偏上水平,有一定的竞争力。但是能否最终被录取还需要看具体的分数排名和竞争情况。建议您:
+1. 保持良好的心态,认真准备后续的面试环节。
+2. 关注学校的官方通知,及时了解最新招生动态。
+3. 准备充分的个人陈述材料,突出自己的优势。
+总之,虽然存在一定的不确定性,但通过努力还是有机会被录取的。祝您好运!</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.3640369772911072</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 상당히 높은 수준입니다. 하지만 정확한 추가합격 확률을 예측하기 위해서는 여러 요소를 고려해야 합니다:
+1. 모집인원과 지원자 수: 게임공학과의 모집인원과 실제 지원자의 수에 따라 달라질 것입니다.
+2. 경쟁률: 동의대학교 전체와 게임공학과의 경쟁률을 파악해야 합니다.
+3. 전형별 합격기준: 일반학생전형, 특성화고 교육과정 등 다양한 전형이 있을 수 있습니다.
+4. 다른 지원자의 성적 분포: 4.16이라는 점수 자체가 높지만, 전체 지원자들의 성적이 어떻게 분포하고 있는지 중요합니다.
+5. 추가합격 기회: 일반적으로 정시에서는 여러 합격 가능성이 주어집니다. 예를 들어, 수능, 실기/실적, 학생부종합 등 다양한 전형이 있을 수 있습니다.
+6. 입학사정관전형 성과: 이전 년도의 입학사정관전형 결과와 비교해볼 필요가 있습니다.
+7. 모집단위 별 차이: 인문사회과학대학, 공과대학 등 각 학부별로 지원자의 수와 경쟁률이 다를 수 있습니다.
+따라서 정확한 예측은 어렵지만, 4.16이라는 높은 점수는 추가합격 가능성이 상당히 높을 것으로 보입니다. 하지만 최종적인 확률을 알기 위해서는 동의대학교 입학처나 해당 학과에 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.6874628663063049</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 경영정보학과의 학생부종합 평가 영역은 다음과 같습니다:
+1. **공동체역량**: 협업능력
+2. **학업역량**: 학업태도 / 학업성취
+3. **전공적합성**: 열정
+성적 3.75는 좋은 성적이지만, 최종 결정은 여러 요소에 따라 달라집니다. 특히 학교생활기록부를 통해 보여지는 공동체역량과 학업역량, 그리고 전공적합성을 고려해야 합니다.
+**주의사항:**
+- **성적 반영**: 2024학년도부터 성적 반영 방식이 변경되었습니다. 최대 12과목을 반영하며, 이 중 진로선택과목은 최대 2과목까지 포함 가능합니다.
+- **동점자 처리**: 동점자가 발생할 경우 면접고사 성적이 우수한 학생이 우선 선발됩니다.
+따라서, 성적 외에도 학교생활기록부에서 보여지는 활동과 경험, 그리고 면접 성적이 중요합니다. 
+**추천 조치:**
+1. **학교생활기록부 작성**: 공동체역량과 학업역량을 잘 반영하도록 작성하십시오.
+2. **면접 준비**: 전공적합성에 대한 질문에 대해 잘 준비해 두세요.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.6942479014396667</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 경영정보학과에 지원하려는 경우, 최초 등록자는 가능한지 확인해야 합니다.
+일반적으로 대학별로 최저 학력 기준이 있으며, 이 기준은 정시 모집단위 별로 다를 수 있습니다. 경영정보학과의 경우, 4.2의 성적을 가지고 지원하는 것은 괜찮지만, 최종 결정을 내리기 위해서는 다음과 같은 점들을 확인해야 합니다:
+1. **정시 모집 단과대학 및 학과**: 경영정보학과가 해당 모집단위에 포함되어 있는지 확인하세요.
+2. **최저 성적 기준**: 동의대학교에서 경영정보학과에 대한 최저 성적 기준을 확인해야 합니다. 이 정보는 대학 홈페이지나 입학처 공고를 통해 확인할 수 있습니다.
+3. **정시 모집 학년**: 4.2의 성적이 2024학년도 정시 모집에 충분한지 확인하세요. 일부 대학은 특정 학년별로 다른 기준을 적용하기도 합니다.
+4. **최초 등록자와 충원 등록자의 차이**: 최초 등록자는 일반적으로 더 높은 성적을 요구받을 수 있으므로, 정확한 기준을 확인하는 것이 중요합니다.
+5. **기타 지원 자격**: 재직자 전형이나 다른 특별전형에 대한 지원 자격도 함께 확인해야 합니다.
+대부분의 경우, 4.2의 성적은 경영정보학과에 충분히 경쟁력 있는 성적이지만, 최종 결정을 내리기 위해서는 동의대학교 입학처 공고나 홈페이지를 통해 정확한 정보를 확인하는 것이 좋습니다.
+만약 해당 정보가 불충분하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 참고하여 최신 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.6538916230201721</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 수능 국어, 수학(미적분 또는 기하), 영어 등급을 반영한 표준점수입니다. 동의대학교 경영정보학과의 경우 일반학생전형에서 수능 최저기준이 없습니다 (수능최저기준 없음).
+따라서 5.33이라는 점수만으로는 합격 가능성을 판단하기 어렵습니다. 다른 요소들도 고려해야 합니다:
+1. **학교생활기록부와 서류평가**:
+   - 경영정보학과는 서류평가가 중요한 역할을 합니다.
+   - 공동체역량, 학업역량, 전공적합성 등 평가 영역에서 좋은 점수를 받는 것이 중요합니다.
+2. **면접평가**:
+   - 면접에서도 경영 관련 지식과 열정을 잘 보여줘야 합니다.
+   - 지원동기와 학업계획, 학업역량 등을 잘 설명해야 합니다.
+3. **전형요소 반영비율**:
+   - 수능 100%로 구성되어 있으므로 수능 점수는 중요하지만, 다른 요소들도 고려됩니다.
+   - 서류와 면접에서 좋은 평가를 받으면 합격 가능성은 높아집니다.
+4. **모집인원과 경쟁률**:
+   - 모집인원과 지원자 수에 따라 경쟁률이 결정되므로, 경쟁률을 고려해야 합니다.
+   - 현재 정보만으로는 정확한 합격 가능성을 예측하기 어렵습니다.
+따라서 5.33이라는 점수로는 단순히 수능 성적이 높다고 합격할 수 있다고 말하기는 어렵습니다. 서류와 면접에서 좋은 평가를 받는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.
+추가적으로, 만약 다른 지원자들과 경쟁률을 고려해야 한다면, 동의대학교 입학 홈페이지나 코스모스 등에서 최신 정보를 확인하시거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7422997951507568</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대해 성적 평균 3.33 정도로 최초등록자로 합격 가능성은 낮지만, 여전히 가능성을 배제할 수는 없습니다. 아래와 같은 요인들을 고려해야 합니다:
+1. 경쟁률: 
+   - 의생명공학과: 경쟁률 2.40
+   - 바이오의약공학과: 경쟁률 2.80
+   - 식품공학과: 경쟁률 2.17
+2. 지원 인원:
+   - 의생명공학과: 99명 지원
+   - 바이오의약공학과: 5명 지원
+   - 식품공학과: 6명 지원
+3. 성적 평균 및 분산:
+   - 의생명공학과: 국어+수학+탐구(가산점 포함) 표준변환점수합 평균 427.50, 표준편차 15.81
+   - 바이오의약공학과: 국어+수학+탐구(가산점 포함) 표준변환점수합 평균 464.38, 표준편차 4.05
+   - 식품공학과: 국어+수학+탐구(가산점 포함) 표준변환점수합 평균 410.95, 표준편차 10.08
+4. 영어 등급:
+   - 의생명공학과: 평균 3.82
+   - 바이오의약공학과: 평균 2.80
+   - 식품공학과: 평균 4.16
+5. 수능 4개 영역 등급:
+   - 의생명공학과: 평균 4.74, 표준편차 0.38
+   - 바이오의약공학과: 평균 3.97, 표준편차 0.20
+   - 식품공학과: 평균 5.1, 표준편차 0.16
+성적 3.33은 평균보다 약간 낮지만, 경쟁률이 낮고 지원 인원도 적어理论上，这句话翻译成中文是：“原则上，根据给定的条件，这个任务是可以完成的。”
+现在我们来具体分析一下：
+1. "It is theoretically possible to complete the task" 理论上来说，完成这项任务是可能的。
+2. "given the provided conditions" 在提供的条件下。
+所以，完整的翻译就是：“原则上，根据给定的条件，这个任务是可以完成的。”</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7822719216346741</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 DEU(디에스유)의 방사선학과에 대한 정보를 바탕으로 분석해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - 모집 인원: 5명
+   - 지원 인원: 36명
+   - 경쟁률: 7.20
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 338.76
+   - 영어 등급의 평균: 2.80
+   - 수능 4개 영역 등급의 평균: 3.82
+3. **성적 비교**:
+   - 현재 성적(등급 4.4)은 평균 점수(평균 3.82)보다 약간 높습니다.
+   - 그러나 경쟁률이 높아, 단순히 등급만으로는 충분한 보장은 아닙니다.
+**결론**: 
+현재의 성적(등급 4.4)으로 방사선학과에 지원한다면 가능성이 있지만, 경쟁률이 매우 높기 때문에 낮은 확률로 합격할 수 있습니다. 다른 지원자들과의 점수 차이와 개인적인 특성 등을 고려해야 합니다.
+추천 사항:
+1. **추가 지원**: 다른 모집단위(예: 의료보건생활대학 내 다른 학과)에서도 지원해 보는 것이 좋습니다.
+2. **면접 준비**: 방사선학과의 경우 면접이 포함될 수 있으므로, 면접 준비를 철저히 해두세요.
+3. **추천서 및 자기소개서**: 강력한 추천서나 독특한 자기소개서가 있다면 이를 활용해보세요.
+최종 결정은 자신의 성적과 경쟁률을 고려하면서, 다양한 전략을 적용하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.8115224242210388</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 최종 등록자들의 수능 평균 점수가 341.62점으로 보이므로, 2.66이라는 점수는 상대적으로 낮은 편입니다. 이 점수로는 경쟁률이 높고 평균 점수가 높은 방사선학과에 합격하기는 어렵다고 볼 수 있습니다.
+하지만, 다음과 같은 요소들을 고려하면 좀 더 정확한 판단을 할 수 있을 것입니다:
+1. **전형방법**: 방사선학과의 전형 방법이 무엇인지 확인해야 합니다. 만약 서류와 면접 평가 비율이 높다면, 좋은 서류와 면접 성적이 중요할 수 있습니다.
+2. **서류평가 점수**: 학생부 종합 평가에서 얻을 수 있는 최대 점수가 얼마인지 확인해야 합니다. 예를 들어, 1등급은 180점이고 5등급은 126점인 경우, 126점을 넘는 서류평가 점수를 받으면 가능성이 있습니다.
+3. **면접평가 점수**: 면접 평가에서도 좋은 성적을 받는 것이 중요합니다. 예를 들어, 1등급은 180점이고 5등급은 126점인 경우, 126점을 넘는 면접 점수를 받으면 가능성이 있습니다.
+4. **전형요소 반영비율**: 방사선학과의 전형요소 반영 비율을 확인해야 합니다. 예를 들어, 서류(학생부)가 70%이고 면접이 30%인 경우, 좋은 서류평가 점수와 적절한 면접 성적이 필요합니다.
+5. **경쟁률**: 방사선학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 평균 이상의 수능 점수와 전형요소를 잘 활용하는 것이 중요합니다.
+따라서, 2.66이라는 수능 점수로는 위험이 있지만, 서류평가와 면접 성적을 잘 준비한다면 가능성을 열어두는 것이 좋습니다. 자세한 정보는 입학처나 대학 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7648840546607971</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 경찰행정학과의 경우 일반적으로 낮은 학생부 평균보다 더 다양한 요소를 고려합니다. 농어촌 전형의 경우 주로 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. 농어촌 거주 경력: 지원자가 농어촌 지역에서 3년 이상 거주한 증빙서류가 필요하며, 이는 합격에 큰 영향을 줄 수 있습니다.
+2. 농어촌 특성화 프로그램 참여 여부: 농어촌 특성화 프로그램이나 활동 경험이 있다면 이는 긍정적으로 작용할 수 있습니다.
+3. 지역사회 기여 활동: 농어촌 지역에서의 자원봉사나 사회공헌 활동이 있다면 이를 강조하는 것이 도움이 될 수 있습니다.
+4. 면접 성적: 면접에서도 농어촌 특성을 잘 반영할 수 있는 답변을 준비해야 합니다.
+5. 학생부 내용: 다양한 과목에서의 꾸준한 성적이 중요합니다. 특히 사회과학 관련 과목에서의 성적이 좋다면 이점이 있습니다.
+6. 추천서: 지역 교사나 지방자치단체로부터의 추천서가 있다면 이를 활용할 수 있습니다.
+3.66이라는 GPA는 좋은 점수지만, 농어촌 특성을 잘 반영하고 활동 경험이 풍부하다면 합격 가능성은 높아질 것입니다. 하지만 최종 결정은 입학심사위원회의 판단에 따라 달라질 수 있으므로, 지원서 작성 시 농어촌 특성을 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.5934039354324341</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 동점자 처리 기준 중 상당히 높은 위치입니다. 그러나 결정적인 것은 합격 가능성을 판단할 때 여러 요소를 고려해야 합니다.
+1. **전형 유형과 모집단위**: 정시 일반학생 전형에서 어떤 모집단위에 지원했는지 중요합니다. 각 모집단위의 경쟁률이 다르기 때문입니다.
+2. **성적 평균**: 수능 성적이 높을수록 합격 가능성은 높아집니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 좋다면 유리합니다.
+3. **면접 및 서류 평가 결과**: 면접이나 서류 평가에서 좋은 점수를 받았다면 합격 가능성은 높아집니다.
+4. **동점자 처리 기준**: 동점자 처리 기준이 25번이라면, 이는 해당 모집단위의 경쟁률이 높다는 것을 의미합니다. 그러나 동점자 처리 기준만으로 합격 확률을 판단하기는 어렵습니다.
+5. **전형 요소 반영 비율**: 각 전형 요소(수능, 면접, 서류 등)에 대한 평가 비율이 다르므로, 이들 요소의 점수가 어떻게 반영되는지 확인해야 합니다.
+6. **최종 합격자 발표 시점**: 최종 합격자 발표 시점까지 기다려보는 것이 좋습니다. 많은 지원자가 동점자 처리를 받을 수 있으므로, 마지막 순간까지 가능성은 열려 있습니다.
+결론적으로 25번의 순위만으로 확실한 답변을 드리기는 어렵지만, 경쟁률이 높다는 것은 분명합니다. 그러나 최종 결과는 여러 요소가综上所述，对于25名的排名是否能被录取，虽然竞争激烈，但并非完全没有希望。建议继续关注学校官网发布的最新信息，并保持积极的心态准备后续可能的变化。
+如果您需要更具体的分析或帮助，请告诉我您具体是哪个专业的申请情况以及您的详细成绩等信息，我可以为您提供更加个性化的建议。</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7870038747787476</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격 기준을 정확히 파악하기 위해서는 최신 입학정보를 참고해야 합니다. 하지만, 일반적으로 법경찰행정학부의 경우 다음과 같은 특징이 있습니다:
+1. 경쟁률: 이전년도에 비해 상대적으로 낮은 경쟁률을 보일 가능성이 높습니다.
+2. 합격 기준:
+   - 국어 + 수학 + 탐구(2과목)의 표준점수 평균이 300-350 사이입니다.
+   - 영어 등급이 4.0 이상인 경우가 많습니다.
+   - 수능 4개 영역 등급 평균이 4.5-5.0 정도입니다.
+3. 안정적인 합격을 위해서는:
+   - 국어 + 수학 + 탐구(2과목)의 표준점수를 330-350 이상 받는 것이 좋습니다.
+   - 영어 등급이 4.5 이상인 것을 추천합니다.
+   - 수능 4개 영역 등급 평균을 4.7-5.0 정도 유지하는 것이 안정적입니다.
+4. 문 닫고 들어갈 수 있는 기준:
+   - 국어 + 수학 + 탐구(2과목)의 표준점수를 310-320 이상 받는 것을 목표로 할 수 있습니다.
+   - 영어 등급이 4.0 이상인 경우가 많습니다.
+   - 수능 4개 영역 등급 평균을 4.5-4.7 정도 유지하는 것이 좋습니다.
+최종적인 합격 가능성을 확인하기 위해서는 동의대학교 입학처 홈페이지나 정시모집 안내서를 참조하시고, 최신 정보를 확인하시는 것이 가장 정확합니다. 또한, 개인의 성적과 경쟁률 변동을 고려하여 목표 점수를 설정하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7132394909858704</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 최종등록자 중 가장 낮은 경쟁률을 보이는 학과로, 지원 인원이 23명이고 모집인원이 6명으로 상대적으로 낮은 경쟁률을 기록하고 있습니다. 
+최종 등록자의 통계를 보면:
+- 지원 인원: 23명
+- 모집 인원: 6명
+- 경쟁률: 4.60
+경쟁률이 4.60이라는 것은 평균적으로 한 명의 합격자를 얻기 위해 약 4.6명이 경쟁하고 있다는 것을 의미합니다.
+성적 측면에서, 수능 등급이 5.33인 경우는 상당히 좋은 성적입니다. 동의대학교의 정시 모집에서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급을 종합적으로 평가합니다.
+5.33 등급은 매우 높은 등급이며, 이는 대략 400점대 중반에서 상위권의 수능 점수를 의미할 것입니다. 따라서, 이와 같은 고등급을 가진 지원자는 보육가정상담학과에 합격하기 위한 경쟁률이 낮아서 좋은 확률로 합격할 가능성이 높습니다.
+그러나 최종 합격 여부는 단순히 등급만으로 결정되는 것이 아니라, 학교에서 평가하는 다양한 요소들(학생부 성적, 면접 결과 등)을 종합적으로 고려하기 때문에, 정확한 확률은 알 수 없습니다. 하지만 5.33이라는 높은 등급을 가진 지원자는 상대적으로 유리할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7927954196929932</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차에서 예비 12번을 받은 경우, 충분히 합격 가능성이 있습니다. 하지만 정확한 확률을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **최종 등록자와의 경쟁**: 현재까지 최종 등록된 지원자의 수와 그들의 평균 점수를 확인해야 합니다.
+2. **평균 점수 비교**: 예비 12번을 받은 점수와 최종 등록자들의 평균 점수를 비교합니다. 예비 순위가 높을수록, 최종 등록자의 평균 점수가 낮을수록 합격 가능성은 높아집니다.
+3. **동점자 처리 기준**: 동점자 처리 기준이 무엇인지 확인해야 합니다. 이 기준에 따라 예비 12번이 최종 등록자들 중 어느 위치에서 처리될지가 결정됩니다.
+4. **전형 방식**: 학생부 종합, 수능 점수, 면접 등의 평가 요소와 그 비율을 고려해야 합니다.
+5. **최종 등록자들의 지원 경향**: 예비 12번이 최종 등록자들 중에서 어느 위치에 있는지 확인하고, 해당 위치의 지원 경향을 분석합니다.
+6. **대학의 선발 정원**: 충원 합격 가능한 인원 수와 현재까지 최종 등록된 지원자의 수를 비교하여 판단합니다.
+이러한 요소들을 종합적으로 고려하면 더 정확한 합격 가능성 평가를 할 수 있습니다. 대학 입학처나 관련 정보를 확인하는 것이 가장 확실한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.7556315660476685</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 등급은 매우 높은 점수입니다. 수능 4개 영역의 평균 등급이 4.75라면, 각 영역별로도 상당히 높은 점수를 받았을 것으로 추정됩니다.
+유아교육학과에 지원할 때 성적만으로는 다음과 같은 점들을 고려해야 합니다:
+1. 유아교육학과의 경쟁률: 이 학과는 일반적으로 많은 수험생들이 선호하므로 높은 경쟁률을 가지고 있을 가능성이 큽니다.
+2. 모집인원: 지원 가능한 인원이 얼마나 되는지 확인해야 합니다. 
+3. 전형방법: 유아교육학과는 종종 학생부와 면접 등 다른 평가 요소도 고려하므로, 단순 성적만으로 결정되는 것은 아닐 수 있습니다.
+4. 추가요건: 일부 학과에서는 교직실습 경력이나 관련 활동 경험 등을 요구할 수도 있습니다.
+5. 대체성적: 일부 학교는 수능 외에 다른 평가 방법을 사용하기도 하므로, 이 점도 고려해야 합니다.
+4.75라는 높은 성적이 있다면 유리한 위치에 있지만, 여전히 경쟁이 치열할 수 있습니다. 최선의 결과를 얻기 위해서는:
+- 해당 학과의 모집요강을 꼼꼼히 확인하고
+- 추가적인 평가 요소들을 준비하며 
+- 다른 지원 전략도 함께 고려하는 것이 좋습니다.
+결론적으로 성적이 높은 만큼 좋은 기회를 얻을 수 있지만, 여전히 경쟁이 치열할 수 있으므로 다양한 방법으로 지원 전략을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.8760565519332886</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 일반학생전형에 대한 정보를 바탕으로 분석해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - 모집 인원: 37명
+   - 지원 인원: 88명
+   - 경쟁률: 약 2.4:1 (88/37)
+2. **성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+   - 영어 등급의 평균: 2.34
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+3. **성적 비교**:
+   - 현재 환산등급이 4.16인 경우, 이는 대략 2024년 수능 등급의 평균보다 약간 낮습니다.
+   - 하지만, 실제 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+4. **추합 가능성**:
+   - 추합 점수를 고려하면, 현재 성적만으로는 경쟁률이 높아서 단순히 환산등급 4.16로 합격하기는 어렵습니다.
+   - 그러나 추합을 통해 추가적인 등급이나 점수가 더해지면 가능성이 있습니다.
+5. **추합 요소**:
+   - 실기/실적 성적
+   - 특별한 경력 또는 활동
+   - 자기소개서 및 면접 성과
+6. **결론**:
+   - 현재 환산등급 4.16로는 단순히 일반학생전형으로 합격하기 어렵습니다.
+   - 추합을 통해 추가적인 점수가 더해지면 가능성이 있지만, 확실한 것은 아닙니다.
+추합 가능성에 대한 정확한 판단은 실기/실적 성적, 자기소개서 및 면접 성과 등을 고려해야 합니다. 추합을 준비하면서 이러한 요소들을 강화하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7868492603302002</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프트웨어융합학과의 경우 다음과 같은 특징이 있습니다:
+1. 정시모집군 변경:
+   - 2023년도에는 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 모집되었습니다.
+   - 2024년도에는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 변경되어 모집되고 있습니다.
+2. 정시모집군: 다
+   - 이는 일반학생전형의 정시모집군으로 분류됩니다.
+3. 평균 등급:
+   - 2024학년도 수능(일반학생전형) 최종등록자에서 소프트웨어공학부 관련 학과들의 평균 등급을 보면, 
+     국어+수학+탐구 (가산점 포함) 표준 변환 점수 합의 평균은 대략 317.87~403.85 사이입니다.
+   - 이 중에서 소프트웨어공학부와 가장 유사한 수치는 317.87 (소프트웨어공학부) 또는 403.85 (인공지능학과) 정도로 추정할 수 있습니다.
+따라서, 소프트웨어융합학과를 정시로 들어가기 위해서는 대략 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 317.87 이상을 받아야 할 것으로 예상됩니다.
+하지만 이는 단순 추정이며, 최종 등급은 모집인원, 지원자 수, 경쟁률 등의 요인에 따라 달라질 수 있습니다. 따라서 정확한 등급 기준은 입학처 공지나 모집요강을 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.6384117603302002</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 소프트웨어융합과 같은 전공에서는 실무 경험과 관련된 세특 내용이 많이 참고될 수 있습니다.
+1. **면접 점수**: 면접에서는 지원자의 문제 해결 능력, 학업역량, 전공적합성 등을 평가합니다. 지원동기와 학업계획, 학업역량에 대한 공통문항 발표 및 질의응답 등이 주요 질문입니다.
+2. **서류 평가**: 서류 평가는 학교생활기록부를 중심으로 합니다. 세특 내용은 학생부 교과성적 외에도 창의적 체험활동, 동아리 활동, 진로활동 등 다양한 경험을 반영할 수 있습니다.
+**세특 내용 준비 방법:**
+- **창의적 체험활동**: 관련 프로젝트나 활동에 참여한 경험이 있다면 자세히 기재하세요. 실제 결과와 그 과정을 설명하는 것이 중요합니다.
+- **동아리 활동**: 동아리에서의 역할과 성과를 기록하세요. 특히 소프트웨어 관련 동아리 활동은 유리하게 작용할 수 있습니다.
+- **진로활동**: 진로 탐색 과정, 직업적성 검사 결과 등이 있다면 이를 포함시켜 전공 적합성을 보여주세요.
+**추가 서류 준비:**
+- **소프트웨어 관련 활동 증빙서류**: 프로젝트나 대회 참여 경력, 소프트웨어 개발 경험 등과 관련된 증빙자료를 첨부하세요.
+- **참고 자료**: 관련 교과 성적, 과제 수행 기록 등이 있다면 함께 제출하면 좋습니다.
+**주의사항:**
+- **허위 기재 피하기**: 학교생활기록부와 실제 활동 내용이 일치해야 합니다. 허위 기재는 감점 또는 불합격 처리될 수 있습니다.
+- **상세한 설명**: 경험을 간단히만 기재하지 말고, 상세하게 설명하여 자신의 능력을 잘 보여주세요.
+입학사정관들은 지원자의 전반적인 역량과 적합성을 종합적으로 평가하므로, 세특 내용도 중요합니다. 꼼꼼한 준비와 진실된 경험을 기록하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5678706765174866</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프리웨어공학부의 최초합격자의 경우, 다음과 같은 정보가 있습니다:
+- 모집단위: 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학)
+- 모집인원: 45명
+- 지원 인원: 28명
+- 경쟁률: 1.64
+- 충원 합격 (후보순위): 10명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 321.40
+- 영어 등급의 평균: 3.60
+- 수능 4개 영역 등급의 평균: 4.22
+이 정보를 바탕으로, 성적이 4.08인 경우 다음과 같은 점을 고려해야 합니다:
+1. **영어 등급**: 평균은 3.60이며, 4.08은 약간 높습니다.
+2. **수능 4개 영역 등급 평균**: 4.22로, 이보다 낮지 않아야 합니다.
+성적이 4.08이라면, 경쟁률이 1.64인 상황에서 충분히 가능성이 있습니다. 그러나 최초합격자들의 성적 평균은 321.40이라는 점을 고려하면, 국어 + 수학 + 탐구(2개)의 점수가 중요할 것입니다.
+따라서, 다음과 같은 조건들을 충족한다면 가능성이 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 321.40 이상
+- 영어 등급이 3.60 정도
+즉, 성적이 4.08이라면 충분히 최초합격 가능성이 있으나, 정확한 확률을 알기 위해서는 해당 대학의 전체 지원자들의 성적 분포와 경쟁률 등을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8538080453872681</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 소프트웨어융합학과의 경우, 평균 등급이 다음과 같습니다:
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.15
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차는 7.46
+이 정보만으로는 정확한 등급을 판단하기 어렵지만, 평균 표준 변환 점수가 430점 이상이고 표준 편차가 7.46이라는 것은 전체 지원자들의 성적이 상대적으로 높은 편임을 의미합니다.
+5등급의 수능 점수는 대략 280-290점 정도로 추정되므로, 이 수치만으로는 소프트웨어융합학과에 충분히 경쟁력이 있는 수준이라고 판단하기 어렵습니다. 
+하지만 등급뿐만 아니라 학업역량, 전공적합성 등의 평가도 이루어지므로, 단순 등급만 보고 판단하는 것은 위험할 수 있습니다. 전체적인 지원 자질을 고려하여 종합적으로 평가받는 것이 중요합니다.
+결론적으로 5등급으로는 경쟁력이 떨어지는 편이며, 더 높은 점수를 받거나 다른 강점을 보여주는 것이 유리할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6580464243888855</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 입학할 가능성을 평가해보겠습니다.
+1. **모집단위 및 전형**: 신소재공학과는 주로 정시 모집이 이루어지며, 일반학생전형으로 지원하는 경우 수능 성적이 중요합니다.
+2. **수능 성적 분석**:
+   - 4.28이라는 점수가 4등급에 해당합니다.
+   - 신소재공학과의 경쟁률은 보통 높습니다 (예: 15개 모집인원에 95명이 지원하여 6.33:1).
+   - 평균 수능 성적을 보면, 대부분의 경우 4등급 이상이 필요합니다.
+3. **수능 반영 영역**:
+   - 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 이 중 상위 3개 영역을 선택하여 점수를 합산합니다.
+4. **예상 평균 성적**:
+   - 예를 들어, 국어 4등급 (100점), 수학 4등급 (108점), 탐구 4등급 (123점)을 가정하면,
+     - 합산 점수 = (100 + 108 + 123) / 3 ≈ 111.7
+   - 이는 상대적으로 낮은 수준입니다.
+5. **추천**:
+   - 4.28이라는 성적을 가지고 신소재공학과에 입학하기는 어렵습니다.
+   - 다른 전형 (예: 학생부종합, 실기/실적 등)이나 다른 공과대학의 모집단위를 고려해보시는 것이 좋을 것 같습니다.
+결론적으로, 4.28이라는 성적만으로 신소재공학과에 입학하기는 어렵습니다. 다른 전형이나 대안을 찾아보시는 것을 추천드립니다. 더 자세한 정보나 조언이 필요하시면 학교 관계자에게 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7188423275947571</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교의 수능 일반학생전형에서는 자기소개서가 요구되지 않습니다. 
+주요 점은 다음과 같습니다:
+1. **제출 서류**: 
+   - 고교 학생부 교과성적 (온라인 제공 동의자에 한해 온라인으로 제공 받음)
+   - 검정고시 출신자나 외국고교 졸업자라면 해당 증명서
+2. **제출 방법**: 
+   - 전형일정에 따라 원서 접수 및 서류 제출을 진행합니다.
+3. **평가 요소**:
+   - 수능 성적 (국어, 수학, 영어 등급)
+   - 탐구 과목 성적
+   - 가산점 (필요한 경우)
+따라서 자기소개서는 필요하지 않습니다. 주로 수능 점수와 학교생활기록부를 통해 평가됩니다. 자세한 내용은 동아대학교 입학처 웹사이트나 공고문을 확인하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.7097702026367188</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 영어 등급으로 보아야 합니다. 한국 대학의 경우, 일반적으로 수능 영어 등급은 다음과 같이 변환됩니다:
+- 1등급 : 91점 이상
+- 2등급 : 83점 이상
+- 3등급 : 75점 이상
+- 4등급 : 67점 이상
+- 5등급 : 59점 이상
+- 6등급 : 51점 이상
+- 7등급 : 43점 이상
+- 8등급 : 35점 이상
+- 9등급 : 27점 이상
+따라서 4.5 등급은 대략 67점 정도를 의미합니다.
+추가모집 가능성 여부는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집단위와 경쟁률**: 각 모집단위의 경쟁률과 남아있는 모집정원을 확인해야 합니다.
+2. **성적 평균 및 분포**: 해당 단과대학 또는 학과의 전체 지원자의 성적 평균과 분포를 살펴보세요.
+3. **전형방법**: 각 전형방법(학생부종합, 실기/실적 등)에서의 점수 반영 비율을 확인해야 합니다.
+4. **추가모집 규칙**: 대학별로 추가모집 시에 어떤 기준으로 학생들을 선발하는지 확인해야 합니다.
+예를 들어, 공과대학이나 ICT융합공과대학에서는 수능 성적이 중요할 수 있으며, 경쟁률이 높을수록 4.5 등급은 낮은 점수일 수 있습니다. 반면 인문사회과학대학에서는 학생부 종합 평가가 더 큰 비중을 차지할 수 있으므로, 영어 성적이 낮더라도 다른 평가 요소들이 좋다면 가능성이 있을 수 있습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 추가모집 규칙과 경쟁률 등을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8600887656211853</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 정시모집은 수능 기반으로 이루어지며, 전형성적 산출방법은 다음과 같습니다:
+- **전형명**: 가군(일반학생전형)
+- **모집단위**: 공과대학, ICT융합공과대학 모집단위
+- **수능 반영영역 및 잔영비율**: 국어 25% + 수학 25% + 영어 25% + 탐구 25%
+- **가산점**: 수학(미적분 또는 기하) 응시자에 한해 수학 표준점수 x 0.1 가산
+이러한 방식으로 성적이 반영되므로, 정확한 등급만으로 합격 가능성을 판단하기는 어렵습니다. 하지만 일반적으로 신소재공학과와 관련된 전공적합성과 과목별 성적이 높은 수험생들이 선호되는 경향이 있습니다.
+**예상적인 합격 기준:**
+- **국어**: 90점 이상
+- **수학(미적분 또는 기하)**: 85점 이상 (가산점 포함)
+- **영어**: 4등급 이상
+- **탐구 영역**: 과학이나 사회 탐구에서 높은 점수를 받는 것이 좋습니다.
+이러한 예상치는 일반적인 경향을 반영한 것입니다. 실제 합격 가능성을 판단하기 위해서는 동의대학교의 정시모집 성적 분포와 최근 몇 년간의 입학성적을 참고해야 합니다. 따라서, 가장 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지나 입학처에 직접 문의하는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+이 웹사이트에서 최신 모집요강과 성적 분포를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7081949710845947</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 신소재공학과와 분자나노공학과는 다음과 같은 특징을 가지고 있습니다:
+- 모집인원: 56명
+- 지원인원: 81명 
+- 경쟁률: 약 1.45 : 1 (약간 낮음)
+- 충원 합격자 수: 25명
+표준점수 평균은 작년보다 약간 낮을 가능성이 있습니다만, 정확한 예측은 어렵습니다. 작년과 유사하거나 약간 높아질 수도 있습니다.
+주요 변수로는:
+1. 지원자들의 수능 성적 분포
+2. 모집단위별 지원 경향
+3. 학교 측의 입학 정원 조정 여부 등이 영향을 미칠 수 있음
+447점은 작년 평균보다 약간 낮지만, 충분히 가능성이 있습니다. 하지만 확실한 예측은 어렵습니다. 최종적인 결과는 동의대학교에서 공식 발표하는 것이 가장 정확할 것입니다.
+추가적으로, 동의대학교의 경우 일반학생전형과 조기취업형 계약학과 전형을 별도로 운영하고 있으므로, 해당 전형별로 평균 점수가 다를 수 있습니다. 따라서 특정 전형에서의 성적 기준을 확인하는 것이 좋습니다.
+결론적으로, 447점은 작년보다 약간 낮지만 충분히 가능성이 있는 범위에 속합니다. 하지만 정확한 예측은 동의대학교에서 공식 발표를 기다리는 것이 가장 안전할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.716078519821167</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이면 신소재공학과(신소재공학과, 고분자나노공학과)에 지원하기는 어렵다고 볼 수 있습니다. 현재 제공된 데이터를 바탕으로 분석해보겠습니다:
+1. **성적 산출방법**: 
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 또는 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학 응시자)
+2. **신소재공학과의 성적 분포**:
+   - 4개 영역 (국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+   - 평균적인 경쟁률이 높고 지원 인원도 많아서 고득점을 요구하는 경향이 있습니다.
+3. **성적 예상**:
+   - 4.1~4.2 등급대는 상위권의 점수일 것입니다.
+   - 신소재공학과의 경우, 평균적인 지원자의 성적이 높기 때문에 이 정도 점수로는 경쟁이 치열할 것으로 예상됩니다.
+4. **추천**:
+   - **성적을 향상시키는 노력**: 수능 공부를 더 집중하고, 실력 향상을 위한 노력을 해보세요.
+   - **다른 학과 지원**: 신소재공학과보다 경쟁이 덜한 다른 학과(예: 기계공학과)를 고려해보세요.
+   - **전형별 특성**: 신소재공학과는 성적이 높아야 하는 경향이 있으므로, 이 정도 점수로는 지원하기 어렵다고 볼 수 있습니다.
+결론적으로 4.1~4.2 등급대의 성적로 신소재공학과에 지원하는 것은 어렵다고 추천드립니다. 다른 학과를 고려해보시거나, 추가적인 공부와 노력을 해보세요.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7478017807006836</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 ICT융합공과대학 인공지능학과의 수능(일반학생전형) 최초 합격자의 성적을 요약하면 다음과 같습니다:
+- 모집단위: 인공지능학과
+- 모집인원: 15명
+- 지원인원: 24명
+- 경쟁률: 1.60
+- 충원 합격 (후보순위): 5명
+성적 관련 통계:
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합의 평균: 301.87
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합의 표준 편차: 12.38
+- 영어 등급의 평균: 4.13
+- 영어 등급의 표준 편차: 0.71
+- 수능 4개 영역 등급의 평균: 4.98
+- 수능 4개 영역 등급의 표준 편차: 0.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 415.80
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 10.49
+이 통계를 참고하시면 해당 전형에 대한 성적 기준을 파악하실 수 있을 것입니다. 하지만 이는 단일 데이터이며, 최종적인 경쟁률과 입학 가능성을 판단하기 위해서는 전체 지원자의 성적 분포와 모집인원 등을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8148953914642334</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 영어 등급으로 보이는데, 이 점수로 동의대학교에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형별로 성적 기준이 다릅니다. 예를 들어:
+   - 법학과: 경쟁률 5.71, 평균 4.27 등급
+   - 영어영문학과 (다군): 경쟁률 2.43, 평균 3.16 등급
+2. 모집인원과 지원자 수도 중요합니다. 예를 들어:
+   - 법학과: 정원 7명, 지원자 40명
+   - 영어영문학과 (다군): 정원 28명, 지원자 56명
+3. 전형별로 성적 기준이 다릅니다. 일반전형, 경기실적우수자전형 등에 따라 다르게 평가됩니다.
+4. 다른 영역(국어, 수학, 탐구)의 성적도 고려해야 합니다. 5.27은 단순히 영어 점수만을 보고 판단하기에는 부족합니다.
+따라서 정확한 답변을 위해서는:
+- 지원하고자 하는 모집단위와 전형
+- 해당 모집단위의 정원과 지원자 수 
+- 다른 과목(국어, 수학 등)의 성적
+이런 정보들을 함께 고려해야 합니다. 이 정보를 바탕으로 더 구체적인 판단을 내릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.8808600902557373</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급으로 동의대학교 소프트웨어공학부에 지원하는 것은 상당히 어려울 것으로 예상됩니다.
+소프트웨어공학부의 경우, 정시 모집에서는 다음과 같은 특징이 있습니다:
+1. 경쟁률이 매우 높습니다 (4.87).
+2. 평균 수능 등급이 4.12입니다.
+3. 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 450.71입니다.
+당신의 수능 성적 (4.2)는 이들 평균보다 약간 낮습니다. 그러나 다음과 같은 방법들을 통해 지원 가능성을 높일 수 있습니다:
+1. 교과 성적: 좋은 교과 성적이 있다면 이를 강조할 수 있습니다.
+2. 추가 활동: 관련 프로젝트나 경력을 보여줄 수 있는 자료가 있다면 제출해보세요.
+3. 자기소개서: 열정과 적합성을 잘 표현한 자기소개서를 준비합니다.
+하지만 여전히 매우 높은 경쟁률을 고려하면, 이 방법들만으로도 확실하게 합격할 수 있는 보장은 없습니다. 
+결론적으로, 가능성이 있지만 매우 낮다고 볼 수 있습니다. 다른 대학이나 전문대학을 함께 준비하는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.718400776386261</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024학년도 모집인원 및 지원자 수**：根据提供的信息，2024学年，화학환경공학과（化学环境工程系）的一般学生招生人数为35人，而最终注册的申请者有68人。
+2. **竞争率**：竞争率为1.94，即每3.92名申请人中就有1个名额。这表明录取难度相对较高。
+3. **成绩分布情况**：
+   - 国语 + 数学 + 探究（2科）（含加分）标准转换总分的平均值为251.82。
+   - 英语等级的平均分为4.67。
+   - 4个科目等级的平均分为5.30。
+4. **个人成绩**：您提到的成绩是3.92，这在英语等级中相当于B+（通常B+对应4.5-4.8分）。
+综合以上信息：
+1. **竞争激烈**：虽然您的成绩在英语方面表现不错，但整体来看，您的总成绩略低于平均值。
+2. **录取难度**：由于该专业的招生人数较少而申请者较多（35个名额，68名申请人），因此竞争非常激烈。
+3. **建议**：
+   - 考虑其他可能的学科组合或专业选择，因为有些专业可能会有较低的竞争率。
+   - 如果您对化学环境工程系特别感兴趣，可以尝试提高自己的成绩，特别是数学和探究科目（如物理、化学等）的成绩。
+   - 也可以关注是否有调剂的机会或其他补录信息。
+综上所述，在当前情况下，虽然有一定机会但竞争非常激烈。建议您综合考虑其他选择并努力提升个人成绩以增加录取几率。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.6003385782241821</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학과는 수능(일반학생전형)을 통해 지원이 가능합니다. 아래 내용을 참고하시면 도움이 될 것입니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: 공과대학
+   - 계열: 공학
+   - 모집단위: 화학공학과, 환경공학과, 응용화학과
+   - 모집인원: 각각 20명
+2. **수능 성적 및 가산점**:
+   - 수능 반영 영역: 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 수능 가산점: 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여
+3. **성적 산출방법**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + (수학(미적분 또는 기하) 응시자에게는 수학 표준점수 x 0.1)
+4. **성적 예시**:
+   - 국어: 104
+   - 수학(미적분): 108
+   - 영어: 4등급 (115)
+   - 탐구: 2개 과목의 표준점수 합
+5. **성적 평균 및 경쟁률**:
+   - 2023학년도 최종 등록자 중 화학환경공학과 지원자의 성적이 다음과 같았습니다.
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 417.30
+     - 영어 등급의 평균: 5.68
+6. **지원 자격**:
+   - 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고, 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 지원 가능
+7. **전형요소 반영비율**:
+   - 수능: 100%
+8. **제출서류**:
+   - 고교 졸업(예정)자: 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+   - 검정고시 출신자 / 외국고 졸업(예정)자: 제출서류 없음
+9. **동점자 처리기준**:
+   - 수능 국어, 수학, 영어영역의 합계점수 상위자
+   - 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+   - 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+당신의 성적이 4.25로 보아, 경쟁률이 높은 화학환경공학과에 지원하기 위해서는 최선을 다해야 합니다. 특히 수능 성적을 잘 활용하고, 학교생활기록부와 면접에서 좋은 평가를 받도록 노력하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7213712334632874</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 영화학과의 경우 실기고사가 큰 비중을 차지하기 때문에 단순히 수능 점수로 합격 여부를 판단하기는 어렵습니다. 아래 몇 가지 요소들을 고려해보세요:
+1. **실기고사 결과**: 디자인조형학과의 실기고사는 700점 중 240점을 차지하며, 이 부분에서 좋은 성적을 받으셨다면 큰 도움이 될 것입니다.
+2. **전형별 비중**:
+   - 나군 수능(일반학생전형): 수능 100%, 실기/실적은 - (없음)
+   - 나군 실기/실적(일반학생전형): 수능 30%, 실기 70%
+3. **경쟁률**: 영화학과의 경쟁률이 2.20으로 상대적으로 낮습니다.
+4. **전형별 평균 점수**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 286.77
+   - 영어 등급의 평균: 3.66
+5. **전형별 최종등록자 수**: 지원 인원이 11명으로 적습니다.
+따라서, 4.2라는 점수는 좋은 성적입니다만, 실기고사 결과와 함께 고려해야 합니다. 만약 실기고사에서도 좋은 성적을 받으셨다면 합격 가능성은 높아질 것입니다. 하지만 정확한 예측은 입학처의 최종 평가를 기다리는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7242023348808289</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是关于面试流程的信息：
+- 面试类型：个别面试。
+- 时间：每人10分钟以内。
+- 方法：由2到3名面试评委对一名考生进行单独评估，基于考生的回答内容进行定性、综合评价。对于录取企业进行深入面试（每名评委2至3人）。
+具体步骤如下：
+①候考室入座 → ②身份确认 → ③前往考场前移动 → ④进入考场 → ⑤介绍申请动机及学业计划 → ⑥关于学业能力、专业适应性相关公共问题陈述和问答 → ⑦其他问题回答（检查提交文件的真实性等） → ⑧退场。
+- 面试中避免的情况：提交的文件中的虚假事实，如在创造性体验活动中记录的俱乐部活动或职业活动的具体内容，在面试时无法回忆起相关内容，或者不能解释超出学校生活记录表的内容。
+- 当分数相同时处理标准：第1名按面试成绩最高者；第2名为书面评估共同领域（社区能力）成绩最高者；第3名为书面评估专业适应性领域成绩最高者；第4名为学业成绩最高者。
+希望这些信息对你有帮助！如果需要更详细的信息，请告诉我。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.3625688254833221</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7957862380146981</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7622836640477181</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.744337512254715</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.779034951031208</v>
+      <c r="D305" t="n">
+        <v>0.7674691381057104</v>
       </c>
     </row>
   </sheetData>
